--- a/forTestReading.xlsx
+++ b/forTestReading.xlsx
@@ -59,8 +59,9 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -606,6 +607,20 @@
         <v>150</v>
       </c>
     </row>
+    <row r="3" ht="14.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45498</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
